--- a/Correlation/Metric 1, 2 and 6/Correlation 1,2&6.xlsx
+++ b/Correlation/Metric 1, 2 and 6/Correlation 1,2&6.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Project</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Statement Cov. Calculation</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>N/A</t>
@@ -210,19 +207,19 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,7 +484,7 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6">
@@ -511,7 +508,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="17"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="6">
         <v>1.1100000000000001</v>
       </c>
@@ -533,7 +530,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="17"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="6">
         <v>1.1200000000000001</v>
       </c>
@@ -555,7 +552,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="17"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="6">
         <v>1.1299999999999999</v>
       </c>
@@ -577,7 +574,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="17"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="6">
         <v>1.1399999999999999</v>
       </c>
@@ -610,7 +607,7 @@
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="6">
@@ -634,7 +631,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="17"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="6">
         <v>4.0999999999999996</v>
       </c>
@@ -656,7 +653,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="17"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="6">
         <v>4.2</v>
       </c>
@@ -678,7 +675,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="6">
         <v>4.3</v>
       </c>
@@ -700,7 +697,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="17"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="6">
         <v>4.4000000000000004</v>
       </c>
@@ -733,7 +730,7 @@
       <c r="A14" s="6">
         <v>3</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="6">
@@ -757,7 +754,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="17"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="6">
         <v>2.4</v>
       </c>
@@ -779,7 +776,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="17"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="6">
         <v>2.5</v>
       </c>
@@ -801,7 +798,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="17"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="6">
         <v>2.6</v>
       </c>
@@ -823,7 +820,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="17"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="6">
         <v>2.7</v>
       </c>
@@ -856,7 +853,7 @@
       <c r="A20" s="6">
         <v>4</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="6">
@@ -880,7 +877,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="17"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="6">
         <v>1.7</v>
       </c>
@@ -902,7 +899,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="17"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="6">
         <v>1.8</v>
       </c>
@@ -924,7 +921,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="17"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="6">
         <v>1.9</v>
       </c>
@@ -946,7 +943,7 @@
     </row>
     <row r="24" spans="1:8" ht="15">
       <c r="A24" s="6"/>
-      <c r="B24" s="17"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="6" t="s">
         <v>13</v>
       </c>
@@ -984,8 +981,8 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1031,7 +1028,7 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5">
@@ -1053,14 +1050,14 @@
         <f>3587/(169+3587)</f>
         <v>0.95500532481363154</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="17">
         <f>H2</f>
         <v>0.95500532481363154</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="17"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="5">
         <v>1.1100000000000001</v>
       </c>
@@ -1080,14 +1077,14 @@
         <f>3887/(276+3887)</f>
         <v>0.93370165745856348</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="17">
         <f t="shared" ref="I3:I24" si="0">H3</f>
         <v>0.93370165745856348</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="17"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="5">
         <v>1.1200000000000001</v>
       </c>
@@ -1107,14 +1104,14 @@
         <f>4004/(272+4004)</f>
         <v>0.93638914873713752</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <f t="shared" si="0"/>
         <v>0.93638914873713752</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="17"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="5">
         <v>1.1299999999999999</v>
       </c>
@@ -1130,18 +1127,18 @@
       <c r="G5" s="5">
         <v>0.19347973299999999</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <f>4301/(276+4301)</f>
         <v>0.93969849246231152</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <f t="shared" si="0"/>
         <v>0.93969849246231152</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="17"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="5">
         <v>1.1399999999999999</v>
       </c>
@@ -1161,7 +1158,7 @@
         <f>4364/(227+4364)</f>
         <v>0.95055543454585056</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <f t="shared" si="0"/>
         <v>0.95055543454585056</v>
       </c>
@@ -1175,16 +1172,16 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>4</v>
       </c>
       <c r="D8" s="5">
@@ -1203,14 +1200,14 @@
         <f>13514/(1356+13514)</f>
         <v>0.90880968392737049</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <f t="shared" si="0"/>
         <v>0.90880968392737049</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="17"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="5">
         <v>4.0999999999999996</v>
       </c>
@@ -1230,14 +1227,14 @@
         <f>12933/(1894+12933)</f>
         <v>0.87226006609563633</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <f t="shared" si="0"/>
         <v>0.87226006609563633</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="17"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="5">
         <v>4.2</v>
       </c>
@@ -1257,14 +1254,14 @@
         <f>12989/(1598+12989)</f>
         <v>0.89045040104202366</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <f t="shared" si="0"/>
         <v>0.89045040104202366</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="5">
         <v>4.3</v>
       </c>
@@ -1284,14 +1281,14 @@
         <f>13001/(1596+13001)</f>
         <v>0.89066246489004586</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <f t="shared" si="0"/>
         <v>0.89066246489004586</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="17"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="5">
         <v>4.4000000000000004</v>
       </c>
@@ -1311,7 +1308,7 @@
         <f>13116/(1597+13116)</f>
         <v>0.89145653503704203</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <f t="shared" si="0"/>
         <v>0.89145653503704203</v>
       </c>
@@ -1325,13 +1322,13 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="5">
         <v>3</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="5">
@@ -1353,14 +1350,14 @@
         <f>13116/(1597+13116)</f>
         <v>0.89145653503704203</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="17">
         <f t="shared" si="0"/>
         <v>0.89145653503704203</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="17"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="5">
         <v>2.4</v>
       </c>
@@ -1376,21 +1373,16 @@
       <c r="G15" s="5">
         <v>6.7528783999999994E-2</v>
       </c>
-      <c r="H15" s="19">
-        <f>11686/(1236+11686)</f>
-        <v>0.9043491719548058</v>
-      </c>
-      <c r="I15" s="18">
+      <c r="H15" s="18"/>
+      <c r="I15" s="17">
         <f t="shared" si="0"/>
-        <v>0.9043491719548058</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="17"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="5">
         <v>2.5</v>
       </c>
@@ -1407,15 +1399,15 @@
         <v>3.3694613999999998E-2</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="21"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="17"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="5">
         <v>2.6</v>
       </c>
@@ -1432,14 +1424,14 @@
         <v>0.100818873</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="18">
+      <c r="I17" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="17"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="5">
         <v>2.7</v>
       </c>
@@ -1456,7 +1448,7 @@
         <v>1.1267733E-2</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="18">
+      <c r="I18" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1470,13 +1462,13 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="18"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="5">
         <v>4</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5">
@@ -1495,13 +1487,13 @@
         <v>0.25011543800000002</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="18" t="s">
-        <v>16</v>
+      <c r="I20" s="17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="17"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="5">
         <v>1.7</v>
       </c>
@@ -1518,14 +1510,14 @@
         <v>0.41650101299999998</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="18">
+      <c r="I21" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="17"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="5">
         <v>1.8</v>
       </c>
@@ -1542,14 +1534,14 @@
         <v>0.378214826</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="18">
+      <c r="I22" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="17"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="5">
         <v>1.9</v>
       </c>
@@ -1566,14 +1558,14 @@
         <v>0.20638769900000001</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="18">
+      <c r="I23" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="6"/>
-      <c r="B24" s="17"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
@@ -1590,7 +1582,7 @@
         <v>1.7140017E-2</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="18">
+      <c r="I24" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
